--- a/data/trans_dic/P36$nada-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P36$nada-Dificultad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02121005683904669</v>
+        <v>0.02044394321144996</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02644209768726658</v>
+        <v>0.02660180086580922</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01449200949201033</v>
+        <v>0.01377811645280486</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01163306289951513</v>
+        <v>0.01171583818429527</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0120290654392708</v>
+        <v>0.0133327366734492</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.005443568859393767</v>
+        <v>0.005270506169795196</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01802991556079244</v>
+        <v>0.01805080839153856</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0218216984450507</v>
+        <v>0.02135968553121413</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01101229449884499</v>
+        <v>0.01063785877973266</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05199900292759365</v>
+        <v>0.05217336034254147</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05263844137235801</v>
+        <v>0.05409149225303497</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03479250373040956</v>
+        <v>0.03390487576319898</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03112143433565055</v>
+        <v>0.031113701917157</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03141298848557989</v>
+        <v>0.03166644513413181</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01738081990404405</v>
+        <v>0.01686948733993893</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03451044777351883</v>
+        <v>0.03549344584145136</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03684274906625017</v>
+        <v>0.03711184578284939</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02186840177533275</v>
+        <v>0.02174261593196013</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01334242140633916</v>
+        <v>0.01328982050745398</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01826849838872848</v>
+        <v>0.01823298143324296</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01199239910481308</v>
+        <v>0.01124938221625239</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.005411783032105038</v>
+        <v>0.005610264506418103</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01093486504602627</v>
+        <v>0.01175889932384942</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.004342962348747375</v>
+        <v>0.004749674204415034</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01126867469378547</v>
+        <v>0.01097558987574055</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01654777672073802</v>
+        <v>0.01740283835562865</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.009285640351384794</v>
+        <v>0.009561803162452271</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03049278035183681</v>
+        <v>0.02949635393762906</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04082368629676394</v>
+        <v>0.04098722786921723</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0315072470909136</v>
+        <v>0.03029828880836443</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01875531979124074</v>
+        <v>0.01876555985367195</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02666678022289154</v>
+        <v>0.02844114622165913</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01705111667781107</v>
+        <v>0.01934619780088576</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02166703150255516</v>
+        <v>0.02142573145701631</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03016050608832116</v>
+        <v>0.03044181913414051</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01998874167863279</v>
+        <v>0.02103375278010774</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01026427698691239</v>
+        <v>0.01086964354319729</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003910529607248152</v>
+        <v>0.003646851900356893</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.007326610506782524</v>
+        <v>0.007328457661411464</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01077551968123176</v>
+        <v>0.01075093584138806</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.00576135223789812</v>
+        <v>0.005718746312440397</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.004869544098898401</v>
+        <v>0.004796137709865682</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01245288146382158</v>
+        <v>0.01279390009308144</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.006227344188266084</v>
+        <v>0.006253659549447536</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.007927413790251038</v>
+        <v>0.007673003262477973</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02573768237215668</v>
+        <v>0.02738027485003605</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01941580265919061</v>
+        <v>0.02018731719407592</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02585887509717013</v>
+        <v>0.02576119331625815</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0281132373710078</v>
+        <v>0.02709637033319036</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02221289882737927</v>
+        <v>0.02083043974887425</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0187435331719225</v>
+        <v>0.01918020719739835</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02395913294049744</v>
+        <v>0.02397957874319317</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0165003931740388</v>
+        <v>0.01686169026038283</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01887467530688166</v>
+        <v>0.01869030533096272</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.00386442980986991</v>
+        <v>0.003606500289297679</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01429680286651248</v>
+        <v>0.01316990378568575</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.009419202488343988</v>
+        <v>0.008541135918639827</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.005894478557231654</v>
+        <v>0.006340037079814438</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.008921232421045013</v>
+        <v>0.007118748223178543</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.005530688769007265</v>
+        <v>0.00394675034499022</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.007293853493085794</v>
+        <v>0.007079249107999076</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0138612516577608</v>
+        <v>0.01364389830185304</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.009079989197636775</v>
+        <v>0.008898003821341706</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02267484855625167</v>
+        <v>0.02177501780657998</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05260653390028614</v>
+        <v>0.04953775582087486</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03537955579312761</v>
+        <v>0.03411726381423139</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03506932468525475</v>
+        <v>0.03781217316769195</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03517276550447614</v>
+        <v>0.03250858156341744</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02506235746354866</v>
+        <v>0.02304978185363384</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02352244124633042</v>
+        <v>0.02382504558343671</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03719935113970824</v>
+        <v>0.03724681898416517</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02514333760810317</v>
+        <v>0.02424605880109339</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01572064166337549</v>
+        <v>0.01625229430836998</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02087729570395148</v>
+        <v>0.0209931466746426</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01437442653138362</v>
+        <v>0.01494751919263433</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01191927363910929</v>
+        <v>0.0117959733972379</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01341153803195761</v>
+        <v>0.01325296252347484</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.007025812252688834</v>
+        <v>0.007220301967213277</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01522398858604083</v>
+        <v>0.01492600191992527</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.017960820340661</v>
+        <v>0.01820196125111959</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01191624994798141</v>
+        <v>0.01172278080128394</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02586311294122442</v>
+        <v>0.02616242309475378</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03216606071708633</v>
+        <v>0.03351869171254256</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02434124732368253</v>
+        <v>0.02534965382764048</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02058650722308805</v>
+        <v>0.0205848060406945</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02230847453001334</v>
+        <v>0.02232084682481897</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01397018329214671</v>
+        <v>0.01375990431214509</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02178810586831526</v>
+        <v>0.02135098688456841</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02570614473879746</v>
+        <v>0.02576367139269141</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01806139034722577</v>
+        <v>0.01775956503816353</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12390</v>
+        <v>11942</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>27525</v>
+        <v>27691</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>16331</v>
+        <v>15527</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10730</v>
+        <v>10806</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>13436</v>
+        <v>14892</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6857</v>
+        <v>6639</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>27162</v>
+        <v>27193</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>47088</v>
+        <v>46092</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>26281</v>
+        <v>25387</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>30375</v>
+        <v>30477</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>54794</v>
+        <v>56306</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>39208</v>
+        <v>38208</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>28704</v>
+        <v>28697</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>35086</v>
+        <v>35369</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>21892</v>
+        <v>21248</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>51989</v>
+        <v>53470</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>79502</v>
+        <v>80083</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>52188</v>
+        <v>51888</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>14341</v>
+        <v>14284</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>17815</v>
+        <v>17781</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>10875</v>
+        <v>10201</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5713</v>
+        <v>5922</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>11966</v>
+        <v>12867</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4362</v>
+        <v>4770</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>24007</v>
+        <v>23382</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>34245</v>
+        <v>36014</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>17746</v>
+        <v>18274</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>32774</v>
+        <v>31703</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>39811</v>
+        <v>39971</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>28572</v>
+        <v>27475</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>19798</v>
+        <v>19809</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>29180</v>
+        <v>31122</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>17125</v>
+        <v>19430</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>46160</v>
+        <v>45645</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>62416</v>
+        <v>62998</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>38202</v>
+        <v>40199</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11484</v>
+        <v>12161</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3461</v>
+        <v>3228</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6029</v>
+        <v>6030</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>10699</v>
+        <v>10674</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5039</v>
+        <v>5002</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3755</v>
+        <v>3698</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>26297</v>
+        <v>27017</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>10959</v>
+        <v>11005</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>12636</v>
+        <v>12230</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>28796</v>
+        <v>30634</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>17185</v>
+        <v>17868</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21278</v>
+        <v>21198</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>27913</v>
+        <v>26903</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>19428</v>
+        <v>18219</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14452</v>
+        <v>14789</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>50595</v>
+        <v>50638</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>29037</v>
+        <v>29672</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>30085</v>
+        <v>29791</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1725</v>
+        <v>1610</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7177</v>
+        <v>6611</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4773</v>
+        <v>4328</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2011</v>
+        <v>2163</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4021</v>
+        <v>3209</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2702</v>
+        <v>1928</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5744</v>
+        <v>5575</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>13206</v>
+        <v>12999</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>9037</v>
+        <v>8856</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>10120</v>
+        <v>9718</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>26408</v>
+        <v>24867</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>17927</v>
+        <v>17287</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>11964</v>
+        <v>12900</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>15855</v>
+        <v>14654</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>12245</v>
+        <v>11262</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>18523</v>
+        <v>18761</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>35442</v>
+        <v>35487</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>25025</v>
+        <v>24132</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>50685</v>
+        <v>52399</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>71051</v>
+        <v>71445</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>48346</v>
+        <v>50273</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>39476</v>
+        <v>39068</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>47431</v>
+        <v>46870</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>24756</v>
+        <v>25441</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>99505</v>
+        <v>97557</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>124645</v>
+        <v>126319</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>82065</v>
+        <v>80733</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>83385</v>
+        <v>84350</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>109469</v>
+        <v>114072</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>81867</v>
+        <v>85259</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>68181</v>
+        <v>68176</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>78896</v>
+        <v>78940</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>49224</v>
+        <v>48484</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>142408</v>
+        <v>139551</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>178397</v>
+        <v>178796</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>124386</v>
+        <v>122307</v>
       </c>
     </row>
     <row r="24">
